--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Anpep-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Anpep-Sele.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.180121999999999</v>
+        <v>1.735750333333333</v>
       </c>
       <c r="H2">
-        <v>24.540366</v>
+        <v>5.207250999999999</v>
       </c>
       <c r="I2">
-        <v>0.06766391458781856</v>
+        <v>0.01516614046792869</v>
       </c>
       <c r="J2">
-        <v>0.06766391458781855</v>
+        <v>0.01516614046792869</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="N2">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="O2">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="P2">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="Q2">
-        <v>64.45580846034466</v>
+        <v>0.8488779578517777</v>
       </c>
       <c r="R2">
-        <v>580.102276143102</v>
+        <v>7.639901620665999</v>
       </c>
       <c r="S2">
-        <v>0.06750945677399892</v>
+        <v>0.0146269486578597</v>
       </c>
       <c r="T2">
-        <v>0.06750945677399892</v>
+        <v>0.0146269486578597</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.180121999999999</v>
+        <v>1.735750333333333</v>
       </c>
       <c r="H3">
-        <v>24.540366</v>
+        <v>5.207250999999999</v>
       </c>
       <c r="I3">
-        <v>0.06766391458781856</v>
+        <v>0.01516614046792869</v>
       </c>
       <c r="J3">
-        <v>0.06766391458781855</v>
+        <v>0.01516614046792869</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.054084</v>
       </c>
       <c r="O3">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="P3">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="Q3">
-        <v>0.147471239416</v>
+        <v>0.03129210700933333</v>
       </c>
       <c r="R3">
-        <v>1.327241154744</v>
+        <v>0.281628963084</v>
       </c>
       <c r="S3">
-        <v>0.0001544578138196432</v>
+        <v>0.0005391918100689929</v>
       </c>
       <c r="T3">
-        <v>0.0001544578138196431</v>
+        <v>0.0005391918100689927</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>302.921326</v>
       </c>
       <c r="I4">
-        <v>0.8352297080366586</v>
+        <v>0.8822596377334645</v>
       </c>
       <c r="J4">
-        <v>0.8352297080366585</v>
+        <v>0.8822596377334644</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="N4">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="O4">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="P4">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="Q4">
-        <v>795.629493350247</v>
+        <v>49.38176335356845</v>
       </c>
       <c r="R4">
-        <v>7160.665440152223</v>
+        <v>444.435870182116</v>
       </c>
       <c r="S4">
-        <v>0.8333231119503041</v>
+        <v>0.8508932415151067</v>
       </c>
       <c r="T4">
-        <v>0.8333231119503041</v>
+        <v>0.8508932415151066</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>302.921326</v>
       </c>
       <c r="I5">
-        <v>0.8352297080366586</v>
+        <v>0.8822596377334645</v>
       </c>
       <c r="J5">
-        <v>0.8352297080366585</v>
+        <v>0.8822596377334644</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.054084</v>
       </c>
       <c r="O5">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="P5">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="Q5">
         <v>1.820355221709333</v>
@@ -756,10 +756,10 @@
         <v>16.383196995384</v>
       </c>
       <c r="S5">
-        <v>0.001906596086354516</v>
+        <v>0.03136639621835773</v>
       </c>
       <c r="T5">
-        <v>0.001906596086354516</v>
+        <v>0.03136639621835773</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>35.218566</v>
       </c>
       <c r="I6">
-        <v>0.09710637737552287</v>
+        <v>0.1025742217986069</v>
       </c>
       <c r="J6">
-        <v>0.09710637737552286</v>
+        <v>0.1025742217986069</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="N6">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="O6">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="P6">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="Q6">
-        <v>92.502334494278</v>
+        <v>5.741275844884</v>
       </c>
       <c r="R6">
-        <v>832.5210104485019</v>
+        <v>51.67148260395599</v>
       </c>
       <c r="S6">
-        <v>0.0968847106444634</v>
+        <v>0.09892746800287584</v>
       </c>
       <c r="T6">
-        <v>0.0968847106444634</v>
+        <v>0.09892746800287583</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>35.218566</v>
       </c>
       <c r="I7">
-        <v>0.09710637737552287</v>
+        <v>0.1025742217986069</v>
       </c>
       <c r="J7">
-        <v>0.09710637737552286</v>
+        <v>0.1025742217986069</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.054084</v>
       </c>
       <c r="O7">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="P7">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="Q7">
         <v>0.211640102616</v>
@@ -880,10 +880,10 @@
         <v>1.904760923544</v>
       </c>
       <c r="S7">
-        <v>0.000221666731059464</v>
+        <v>0.003646753795731047</v>
       </c>
       <c r="T7">
-        <v>0.000221666731059464</v>
+        <v>0.003646753795731047</v>
       </c>
     </row>
   </sheetData>
